--- a/Gol/Timing.xlsx
+++ b/Gol/Timing.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC TI VE\OneDrive\Golrang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TextTorturial\Gol\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10872" windowHeight="5652"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10875" windowHeight="5655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="بهمن 1400" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>ردیف</t>
   </si>
@@ -145,6 +145,30 @@
   </si>
   <si>
     <t>1400/11/26</t>
+  </si>
+  <si>
+    <t>1400/11/27</t>
+  </si>
+  <si>
+    <t>چهارشنبه</t>
+  </si>
+  <si>
+    <t>1400/11/30</t>
+  </si>
+  <si>
+    <t>1400/12/01</t>
+  </si>
+  <si>
+    <t>1400/12/02</t>
+  </si>
+  <si>
+    <t>1400/12/03</t>
+  </si>
+  <si>
+    <t>1400/12/04</t>
+  </si>
+  <si>
+    <t>1400/12/06</t>
   </si>
 </sst>
 </file>
@@ -155,7 +179,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -213,12 +237,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -229,6 +247,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -513,16 +537,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView rightToLeft="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -539,12 +563,12 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="2">
         <f>SUM(D3:D26)</f>
         <v>111</v>
@@ -554,7 +578,7 @@
         <v>11100000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -568,7 +592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -582,7 +606,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -596,7 +620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -610,7 +634,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -624,7 +648,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -638,7 +662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -652,7 +676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -666,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -680,7 +704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -694,7 +718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -708,7 +732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -722,7 +746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -736,7 +760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -750,7 +774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -764,7 +788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -778,7 +802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -792,7 +816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -806,7 +830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -820,7 +844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -834,7 +858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -848,7 +872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -862,7 +886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -888,255 +912,297 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="9"/>
-    <col min="2" max="2" width="10.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="8.875" style="7"/>
+    <col min="2" max="2" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="7">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="5">
         <f>SUM(D3:D26)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="8">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="8">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="8">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>15</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>17</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Gol/Timing.xlsx
+++ b/Gol/Timing.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TextTorturial\Gol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitFolder\Gol\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10875" windowHeight="5655" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10872" windowHeight="5652" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="بهمن 1400" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>ردیف</t>
   </si>
@@ -169,6 +169,30 @@
   </si>
   <si>
     <t>1400/12/06</t>
+  </si>
+  <si>
+    <t>1400/12/07</t>
+  </si>
+  <si>
+    <t>1400/12/08</t>
+  </si>
+  <si>
+    <t>1400/12/09</t>
+  </si>
+  <si>
+    <t>1400/12/10</t>
+  </si>
+  <si>
+    <t>1400/12/11</t>
+  </si>
+  <si>
+    <t>1400/12/13</t>
+  </si>
+  <si>
+    <t>1400/12/14</t>
+  </si>
+  <si>
+    <t>1400/12/15</t>
   </si>
 </sst>
 </file>
@@ -179,7 +203,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -541,12 +565,12 @@
       <selection activeCell="D3" sqref="D3:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -563,7 +587,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -578,7 +602,7 @@
         <v>11100000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -592,7 +616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -606,7 +630,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -620,7 +644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -634,7 +658,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -648,7 +672,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -662,7 +686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -676,7 +700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -690,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -704,7 +728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -718,7 +742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -732,7 +756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -746,7 +770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -760,7 +784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -774,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -788,7 +812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -802,7 +826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -816,7 +840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -830,7 +854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -844,7 +868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -858,7 +882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -872,7 +896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -886,7 +910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -912,18 +936,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="7"/>
-    <col min="2" max="2" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.875" style="7"/>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -937,7 +961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -945,10 +969,10 @@
       <c r="C2" s="9"/>
       <c r="D2" s="5">
         <f>SUM(D3:D26)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -959,10 +983,10 @@
         <v>27</v>
       </c>
       <c r="D3" s="6">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -976,7 +1000,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -990,7 +1014,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1004,7 +1028,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1015,10 +1039,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1032,7 +1056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1046,7 +1070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1060,7 +1084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1074,7 +1098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1088,7 +1112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1102,7 +1126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1116,90 +1140,132 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>21</v>
-      </c>
+      <c r="B22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
-        <v>22</v>
-      </c>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
-        <v>23</v>
-      </c>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>

--- a/Gol/Timing.xlsx
+++ b/Gol/Timing.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitFolder\Gol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TextTorturial\Gol\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10872" windowHeight="5652" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10875" windowHeight="5655" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="بهمن 1400" sheetId="1" r:id="rId1"/>
     <sheet name="اسفند 1400" sheetId="2" r:id="rId2"/>
+    <sheet name="فروردین 1401" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="85">
   <si>
     <t>ردیف</t>
   </si>
@@ -193,6 +194,93 @@
   </si>
   <si>
     <t>1400/12/15</t>
+  </si>
+  <si>
+    <t>1400/12/21</t>
+  </si>
+  <si>
+    <t>1400/12/22</t>
+  </si>
+  <si>
+    <t>1400/12/23</t>
+  </si>
+  <si>
+    <t>1400/12/24</t>
+  </si>
+  <si>
+    <t>1400/12/25</t>
+  </si>
+  <si>
+    <t>1400/12/26</t>
+  </si>
+  <si>
+    <t>1400/12/27</t>
+  </si>
+  <si>
+    <t>1400/12/28</t>
+  </si>
+  <si>
+    <t>1400/12/29</t>
+  </si>
+  <si>
+    <t>1401/01/01</t>
+  </si>
+  <si>
+    <t>1401/01/02</t>
+  </si>
+  <si>
+    <t>1401/01/03</t>
+  </si>
+  <si>
+    <t>1401/01/04</t>
+  </si>
+  <si>
+    <t>1401/01/05</t>
+  </si>
+  <si>
+    <t>1401/01/06</t>
+  </si>
+  <si>
+    <t>1401/01/07</t>
+  </si>
+  <si>
+    <t>1401/01/08</t>
+  </si>
+  <si>
+    <t>1401/01/09</t>
+  </si>
+  <si>
+    <t>1401/01/10</t>
+  </si>
+  <si>
+    <t>1401/01/11</t>
+  </si>
+  <si>
+    <t>1401/01/12</t>
+  </si>
+  <si>
+    <t>1401/01/13</t>
+  </si>
+  <si>
+    <t>1401/01/14</t>
+  </si>
+  <si>
+    <t>1401/01/15</t>
+  </si>
+  <si>
+    <t>1401/01/16</t>
+  </si>
+  <si>
+    <t>1401/01/17</t>
+  </si>
+  <si>
+    <t>1401/01/18</t>
+  </si>
+  <si>
+    <t>1401/01/19</t>
+  </si>
+  <si>
+    <t>1401/01/20</t>
   </si>
 </sst>
 </file>
@@ -203,7 +291,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -256,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -274,10 +362,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,18 +659,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D12"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -583,26 +683,19 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="2">
         <f>SUM(D3:D26)</f>
         <v>111</v>
       </c>
-      <c r="E2">
-        <f>E1*D2</f>
-        <v>11100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -616,7 +709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -630,7 +723,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -644,7 +737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -658,7 +751,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -672,7 +765,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -686,7 +779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -700,7 +793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -714,7 +807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -728,7 +821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -742,7 +835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -756,7 +849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -770,7 +863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -784,7 +877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -798,7 +891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -812,7 +905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -826,7 +919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -840,7 +933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -854,7 +947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -868,7 +961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -882,7 +975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -896,7 +989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -910,7 +1003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -936,18 +1029,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7"/>
-    <col min="2" max="2" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="8.875" style="7"/>
+    <col min="2" max="2" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -961,18 +1054,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="5">
         <f>SUM(D3:D26)</f>
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -986,7 +1079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1000,7 +1093,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1014,7 +1107,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1028,7 +1121,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1042,7 +1135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1056,7 +1149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1070,7 +1163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1084,7 +1177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1098,7 +1191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1112,7 +1205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1126,7 +1219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1140,7 +1233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -1154,7 +1247,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -1168,7 +1261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -1182,7 +1275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -1196,7 +1289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -1210,7 +1303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -1224,7 +1317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -1238,7 +1331,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -1252,23 +1345,475 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="8">
+        <f>SUM(D3:D26)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="12">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Gol/Timing.xlsx
+++ b/Gol/Timing.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10875" windowHeight="5655" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10875" windowHeight="5655" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="بهمن 1400" sheetId="1" r:id="rId1"/>
     <sheet name="اسفند 1400" sheetId="2" r:id="rId2"/>
     <sheet name="فروردین 1401" sheetId="3" r:id="rId3"/>
+    <sheet name="اردیبهشت 1401" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="116">
   <si>
     <t>ردیف</t>
   </si>
@@ -281,13 +282,106 @@
   </si>
   <si>
     <t>1401/01/20</t>
+  </si>
+  <si>
+    <t>1401/01/21</t>
+  </si>
+  <si>
+    <t>1401/01/22</t>
+  </si>
+  <si>
+    <t>1401/01/23</t>
+  </si>
+  <si>
+    <t>1401/01/24</t>
+  </si>
+  <si>
+    <t>1401/01/25</t>
+  </si>
+  <si>
+    <t>1401/01/26</t>
+  </si>
+  <si>
+    <t>1401/01/27</t>
+  </si>
+  <si>
+    <t>1401/01/28</t>
+  </si>
+  <si>
+    <t>1401/01/29</t>
+  </si>
+  <si>
+    <t>1401/01/30</t>
+  </si>
+  <si>
+    <t>1401/01/31</t>
+  </si>
+  <si>
+    <t>1401/02/01</t>
+  </si>
+  <si>
+    <t>1401/02/02</t>
+  </si>
+  <si>
+    <t>1401/02/03</t>
+  </si>
+  <si>
+    <t>1401/02/04</t>
+  </si>
+  <si>
+    <t>1401/02/05</t>
+  </si>
+  <si>
+    <t>1401/02/06</t>
+  </si>
+  <si>
+    <t>1401/02/07</t>
+  </si>
+  <si>
+    <t>1401/02/08</t>
+  </si>
+  <si>
+    <t>1401/02/09</t>
+  </si>
+  <si>
+    <t>1401/02/10</t>
+  </si>
+  <si>
+    <t>1401/02/11</t>
+  </si>
+  <si>
+    <t>1401/02/12</t>
+  </si>
+  <si>
+    <t>1401/02/13</t>
+  </si>
+  <si>
+    <t>1401/02/14</t>
+  </si>
+  <si>
+    <t>1401/02/15</t>
+  </si>
+  <si>
+    <t>1401/02/16</t>
+  </si>
+  <si>
+    <t>1401/02/17</t>
+  </si>
+  <si>
+    <t>1401/02/18</t>
+  </si>
+  <si>
+    <t>1401/02/19</t>
+  </si>
+  <si>
+    <t>1401/02/20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,8 +390,14 @@
       <charset val="178"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +413,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -364,12 +476,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -378,6 +484,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,11 +825,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="2">
         <f>SUM(D3:D26)</f>
         <v>111</v>
@@ -1055,11 +1195,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="5">
         <f>SUM(D3:D26)</f>
         <v>99</v>
@@ -1375,13 +1515,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection sqref="A1:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="9" style="13"/>
+    <col min="4" max="4" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1399,11 +1539,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="8">
         <f>SUM(D3:D26)</f>
         <v>51</v>
@@ -1755,7 +1895,7 @@
       <c r="C27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="10">
         <v>3.5</v>
       </c>
     </row>
@@ -1769,7 +1909,7 @@
       <c r="C28" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="10">
         <v>2.5</v>
       </c>
     </row>
@@ -1783,7 +1923,7 @@
       <c r="C29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1797,7 +1937,7 @@
       <c r="C30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1808,10 +1948,10 @@
       <c r="B31" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1821,4 +1961,485 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17">
+        <f>SUM(D3:D33)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="18">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="18">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="18">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="21">
+        <v>6</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="18">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="18">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="18">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="18">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="18">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="18">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="18">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="18">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="18">
+        <v>12</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="21">
+        <v>13</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="21">
+        <v>14</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="18">
+        <v>15</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="18">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="18">
+        <v>17</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="18">
+        <v>18</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="18">
+        <v>19</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="21">
+        <v>20</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="18">
+        <v>21</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="18">
+        <v>22</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="23">
+        <v>23</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="23">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="21">
+        <v>24</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="21">
+        <v>25</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="18">
+        <v>26</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="21">
+        <v>27</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="18">
+        <v>28</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="18">
+        <v>29</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="18">
+        <v>30</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="18">
+        <v>31</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="19">
+        <v>5.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Gol/Timing.xlsx
+++ b/Gol/Timing.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10875" windowHeight="5655" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10875" windowHeight="5655" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="بهمن 1400" sheetId="1" r:id="rId1"/>
     <sheet name="اسفند 1400" sheetId="2" r:id="rId2"/>
     <sheet name="فروردین 1401" sheetId="3" r:id="rId3"/>
     <sheet name="اردیبهشت 1401" sheetId="4" r:id="rId4"/>
+    <sheet name="خرداد 1401" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="147">
   <si>
     <t>ردیف</t>
   </si>
@@ -375,6 +376,99 @@
   </si>
   <si>
     <t>1401/02/20</t>
+  </si>
+  <si>
+    <t>1401/02/21</t>
+  </si>
+  <si>
+    <t>1401/02/22</t>
+  </si>
+  <si>
+    <t>1401/02/23</t>
+  </si>
+  <si>
+    <t>1401/02/24</t>
+  </si>
+  <si>
+    <t>1401/02/25</t>
+  </si>
+  <si>
+    <t>1401/02/26</t>
+  </si>
+  <si>
+    <t>1401/02/27</t>
+  </si>
+  <si>
+    <t>1401/02/28</t>
+  </si>
+  <si>
+    <t>1401/02/29</t>
+  </si>
+  <si>
+    <t>1401/02/30</t>
+  </si>
+  <si>
+    <t>1401/02/31</t>
+  </si>
+  <si>
+    <t>1401/03/01</t>
+  </si>
+  <si>
+    <t>1401/03/02</t>
+  </si>
+  <si>
+    <t>1401/03/03</t>
+  </si>
+  <si>
+    <t>1401/03/04</t>
+  </si>
+  <si>
+    <t>1401/03/05</t>
+  </si>
+  <si>
+    <t>1401/03/06</t>
+  </si>
+  <si>
+    <t>1401/03/07</t>
+  </si>
+  <si>
+    <t>1401/03/08</t>
+  </si>
+  <si>
+    <t>1401/03/09</t>
+  </si>
+  <si>
+    <t>1401/03/10</t>
+  </si>
+  <si>
+    <t>1401/03/11</t>
+  </si>
+  <si>
+    <t>1401/03/12</t>
+  </si>
+  <si>
+    <t>1401/03/13</t>
+  </si>
+  <si>
+    <t>1401/03/14</t>
+  </si>
+  <si>
+    <t>1401/03/15</t>
+  </si>
+  <si>
+    <t>1401/03/16</t>
+  </si>
+  <si>
+    <t>1401/03/17</t>
+  </si>
+  <si>
+    <t>1401/03/18</t>
+  </si>
+  <si>
+    <t>1401/03/19</t>
+  </si>
+  <si>
+    <t>1401/03/20</t>
   </si>
 </sst>
 </file>
@@ -485,19 +579,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,6 +602,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -825,11 +919,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="2">
         <f>SUM(D3:D26)</f>
         <v>111</v>
@@ -1195,11 +1289,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="5">
         <f>SUM(D3:D26)</f>
         <v>99</v>
@@ -1539,11 +1633,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="8">
         <f>SUM(D3:D26)</f>
         <v>51</v>
@@ -1967,472 +2061,950 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection sqref="A1:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9" style="15"/>
+    <col min="1" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="14">
         <f>SUM(D3:D33)</f>
         <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="18">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="18">
+      <c r="C3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="18">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="18">
+      <c r="C4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="18">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
+      <c r="B5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="18">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="15">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="15">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="15">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="15">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="15">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="15">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="15">
+        <v>12</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="18">
+        <v>13</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="18">
+        <v>14</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="15">
+        <v>15</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="15">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="15">
+        <v>16</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="15">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="15">
+        <v>18</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="15">
+        <v>19</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="18">
+        <v>20</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="15">
+        <v>21</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="15">
+        <v>22</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="20">
+        <v>23</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="20">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="18">
+        <v>24</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="18">
+        <v>25</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="15">
+        <v>26</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="18">
+        <v>27</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="15">
+        <v>28</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="15">
+        <v>29</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="15">
+        <v>30</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="15">
+        <v>31</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="16">
+        <v>5.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="14">
+        <f>SUM(D3:D33)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
       <c r="B5" s="18" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="18">
-        <v>4</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="D9" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="18">
-        <v>5</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="D10" s="15">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="21">
-        <v>6</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="21" t="s">
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="18">
-        <v>7</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="18">
+      <c r="D13" s="15">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>12</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>14</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="18">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="18">
-        <v>9</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="18">
-        <v>10</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="18" t="s">
+      <c r="D16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>15</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="15">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <v>16</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>17</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>18</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>19</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>20</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>21</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="18">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="18">
-        <v>11</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="D23" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <v>22</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="18">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="18">
+      <c r="D24" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>23</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A26" s="15">
+        <v>24</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A27" s="15">
+        <v>25</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="18" t="s">
+      <c r="D27" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A28" s="15">
+        <v>26</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A29" s="15">
         <v>27</v>
       </c>
-      <c r="D14" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="21">
-        <v>13</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="21" t="s">
+      <c r="B29" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A30" s="15">
+        <v>28</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A31" s="15">
         <v>29</v>
       </c>
-      <c r="D15" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="21">
-        <v>14</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="18">
-        <v>15</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="18">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="18">
-        <v>17</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="18">
-        <v>18</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="B31" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="18">
-        <v>19</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="18" t="s">
+      <c r="D31" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A32" s="15">
+        <v>30</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="21">
-        <v>20</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="21" t="s">
+      <c r="D32" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A33" s="15">
+        <v>31</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="18">
-        <v>21</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="18">
-        <v>22</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="23">
-        <v>23</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="23">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="21">
-        <v>24</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="21">
-        <v>25</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="18">
-        <v>26</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="21">
-        <v>27</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="18">
-        <v>28</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="18">
-        <v>29</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="18">
-        <v>30</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="18">
-        <v>31</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="19">
-        <v>5.5</v>
+      <c r="D33" s="16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Gol/Timing.xlsx
+++ b/Gol/Timing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10875" windowHeight="5655" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10875" windowHeight="5655" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="بهمن 1400" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="فروردین 1401" sheetId="3" r:id="rId3"/>
     <sheet name="اردیبهشت 1401" sheetId="4" r:id="rId4"/>
     <sheet name="خرداد 1401" sheetId="5" r:id="rId5"/>
+    <sheet name="تیر 1401" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="178">
   <si>
     <t>ردیف</t>
   </si>
@@ -469,6 +470,99 @@
   </si>
   <si>
     <t>1401/03/20</t>
+  </si>
+  <si>
+    <t>1401/03/21</t>
+  </si>
+  <si>
+    <t>1401/03/22</t>
+  </si>
+  <si>
+    <t>1401/03/23</t>
+  </si>
+  <si>
+    <t>1401/03/24</t>
+  </si>
+  <si>
+    <t>1401/03/25</t>
+  </si>
+  <si>
+    <t>1401/03/26</t>
+  </si>
+  <si>
+    <t>1401/03/27</t>
+  </si>
+  <si>
+    <t>1401/03/28</t>
+  </si>
+  <si>
+    <t>1401/03/29</t>
+  </si>
+  <si>
+    <t>1401/03/30</t>
+  </si>
+  <si>
+    <t>1401/03/31</t>
+  </si>
+  <si>
+    <t>1401/04/01</t>
+  </si>
+  <si>
+    <t>1401/04/02</t>
+  </si>
+  <si>
+    <t>1401/04/03</t>
+  </si>
+  <si>
+    <t>1401/04/04</t>
+  </si>
+  <si>
+    <t>1401/04/05</t>
+  </si>
+  <si>
+    <t>1401/04/06</t>
+  </si>
+  <si>
+    <t>1401/04/07</t>
+  </si>
+  <si>
+    <t>1401/04/08</t>
+  </si>
+  <si>
+    <t>1401/04/09</t>
+  </si>
+  <si>
+    <t>1401/04/10</t>
+  </si>
+  <si>
+    <t>1401/04/11</t>
+  </si>
+  <si>
+    <t>1401/04/12</t>
+  </si>
+  <si>
+    <t>1401/04/13</t>
+  </si>
+  <si>
+    <t>1401/04/14</t>
+  </si>
+  <si>
+    <t>1401/04/15</t>
+  </si>
+  <si>
+    <t>1401/04/16</t>
+  </si>
+  <si>
+    <t>1401/04/17</t>
+  </si>
+  <si>
+    <t>1401/04/18</t>
+  </si>
+  <si>
+    <t>1401/04/19</t>
+  </si>
+  <si>
+    <t>1401/04/20</t>
   </si>
 </sst>
 </file>
@@ -550,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -602,6 +696,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -919,11 +1016,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="2">
         <f>SUM(D3:D26)</f>
         <v>111</v>
@@ -1289,11 +1386,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="5">
         <f>SUM(D3:D26)</f>
         <v>99</v>
@@ -1633,11 +1730,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="8">
         <f>SUM(D3:D26)</f>
         <v>51</v>
@@ -2085,11 +2182,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="14">
         <f>SUM(D3:D33)</f>
         <v>99</v>
@@ -2542,8 +2639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection sqref="A1:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2563,11 +2660,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="14">
         <f>SUM(D3:D33)</f>
         <v>103</v>
@@ -3005,6 +3102,484 @@
       </c>
       <c r="D33" s="16">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="21">
+        <f>SUM(D3:D33)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="15">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="15">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="15">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="15">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="15">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>12</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>14</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>15</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="15">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <v>16</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="15">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>18</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>19</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>20</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>21</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <v>22</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>23</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A26" s="15">
+        <v>24</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A27" s="15">
+        <v>25</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="16">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A28" s="15">
+        <v>26</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A29" s="15">
+        <v>27</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A30" s="15">
+        <v>28</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A31" s="15">
+        <v>29</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A32" s="15">
+        <v>30</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A33" s="15">
+        <v>31</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="16">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
